--- a/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/FLCoral_BCGCalc/inst/apps/FLCoral_BCGCalc/external/RMD/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MIEGLEtools/inst/apps/MIEGLEtools/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561D7837-FBF0-413F-BBA1-13C899878D7A}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F6F2569-E970-47CB-B8D7-54CFF9DCBA55}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="2" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="1" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
-    <sheet name="FileBuild_OutsideCoral" sheetId="13" r:id="rId2"/>
+    <sheet name="FileBuild_Outside" sheetId="13" r:id="rId2"/>
     <sheet name="Calc_BCG" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
   <si>
     <t>Description</t>
   </si>
@@ -112,15 +112,9 @@
     <t>Unique sample identifier (typically comprised of the site name, sample date, and replicate number).</t>
   </si>
   <si>
-    <t>BCG_ATTR</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>non-negative real number</t>
-  </si>
-  <si>
     <t>TRUE, FALSE</t>
   </si>
   <si>
@@ -130,12 +124,6 @@
     <t>Entries should be consistent with the phylogeny.</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5, 6</t>
-  </si>
-  <si>
-    <t>BCG Attribute assigned to each taxon. A single taxon can only have one entry.</t>
-  </si>
-  <si>
     <t>TAXAID</t>
   </si>
   <si>
@@ -253,84 +241,12 @@
     <t>BCG_6metflags</t>
   </si>
   <si>
-    <t>LRBC</t>
-  </si>
-  <si>
-    <t>JUVENILE</t>
-  </si>
-  <si>
-    <t>DIAMMAX_CM</t>
-  </si>
-  <si>
-    <t>DIAMPERP_CM</t>
-  </si>
-  <si>
-    <t>WEEDY</t>
-  </si>
-  <si>
-    <t>MORPHCONVFACT</t>
-  </si>
-  <si>
     <t>CLASS</t>
   </si>
   <si>
     <t>SUBCLASS</t>
   </si>
   <si>
-    <t>GENUS</t>
-  </si>
-  <si>
-    <t>SUBGENUS</t>
-  </si>
-  <si>
-    <t>SPECIES</t>
-  </si>
-  <si>
-    <t>TOTTRANLNGTH_M</t>
-  </si>
-  <si>
-    <t>HEIGHT_CM</t>
-  </si>
-  <si>
-    <t>TOTMORT_PCT</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morphological Conversion Factor. In general, morphological types and relative values included flat (M=1), hemisphere (M=2), overlapping plates and lobes (M=3), and branched (M=4) colonies. </t>
-  </si>
-  <si>
-    <t>% total mortality of the colony (e.g., 58%). Used to calculate % Living Tissue = 100 - TOTMORT_PCT.</t>
-  </si>
-  <si>
-    <t>"Sometimes" or "Never"</t>
-  </si>
-  <si>
-    <t>Specifies whether a colony is 'Weedy' as either "Sometimes" or "Never". Converted to binary TRUE/FALSE WEEDY_CONFIRMED field. Any colony listed as "Never" will equal FALSE. Any colony listed as "Sometimes" and under 75cm maximum diameter will equal TRUE unless they are Siderastrea siderea or Stepahnocoenia intersepta. Colonies of those two species are considered 'Weedy' if the maximum diameter is less than or equal to 30cm and the height is less than or equal to 10cm.</t>
-  </si>
-  <si>
-    <t>Large reef-building coral colonies should be marked as 'TRUE'.</t>
-  </si>
-  <si>
-    <t>Maximum diameter of the colony (cm)</t>
-  </si>
-  <si>
-    <t>Perpendicular diameter of the colony (cm).</t>
-  </si>
-  <si>
-    <t>Height of the colony (cm).</t>
-  </si>
-  <si>
-    <t>Juvenile colonies should be marked as 'TRUE'.</t>
-  </si>
-  <si>
-    <t>Taxonomic identification of colonies in each sample.</t>
-  </si>
-  <si>
-    <t>Total transect length of the sample (m). Should be repeated for each row.</t>
-  </si>
-  <si>
     <t>FLCoral_BCG_Attributes_yyyymmdd</t>
   </si>
   <si>
@@ -356,13 +272,61 @@
   </si>
   <si>
     <t>Values for coral metrics used in the FL BCG models; each metric is assigned to  assigned metric membership values (0-1)</t>
+  </si>
+  <si>
+    <t>N_TAXA</t>
+  </si>
+  <si>
+    <t>NONTARGET</t>
+  </si>
+  <si>
+    <t>SUBPHYLUM</t>
+  </si>
+  <si>
+    <t>FFG</t>
+  </si>
+  <si>
+    <t>TOLVAL</t>
+  </si>
+  <si>
+    <t>HABIT</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>Latitude (y-coordinate) in decimal degrees. Only necessary for site classification app function; otherwise, can be excluded.</t>
+  </si>
+  <si>
+    <t>Longitude (x-coordinate) in decimal degrees. Only necessary for site classification app function; otherwise, can be excluded.</t>
+  </si>
+  <si>
+    <t>Narrow, VeryNarrow, MidSizeDry, WetWide, WestFlat, WestSteep, East</t>
+  </si>
+  <si>
+    <t>INDEX_CLASS</t>
+  </si>
+  <si>
+    <t>Index class is assigned based on site characteristics. Can be manually chosen or chosen through the site classification app function.</t>
+  </si>
+  <si>
+    <t>Taxonomic identification of macroinvertebrates in each sample.</t>
+  </si>
+  <si>
+    <t>Number of individuals</t>
+  </si>
+  <si>
+    <t>Confirm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,8 +349,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -432,6 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,9 +428,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -490,7 +468,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -596,7 +574,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -738,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -773,10 +751,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -784,21 +762,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -806,10 +784,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -817,21 +795,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -839,10 +817,10 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -850,10 +828,10 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -861,10 +839,10 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -877,10 +855,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A23830-B5FB-49D3-AF84-8DE9239FC2FB}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,67 +908,67 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
+      <c r="C5" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>87</v>
@@ -997,16 +976,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>88</v>
@@ -1014,109 +993,109 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
+      <c r="A10" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>67</v>
+      <c r="A12" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
+      <c r="A14" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1125,129 +1104,61 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="C15" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="C17" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1276,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1284,10 +1195,10 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1295,156 +1206,156 @@
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MIEGLEtools/inst/apps/MIEGLEtools/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F6F2569-E970-47CB-B8D7-54CFF9DCBA55}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BD91BC-9A96-4156-8D60-57A9D1D95BF0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="1" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
     <sheet name="FileBuild_Outside" sheetId="13" r:id="rId2"/>
-    <sheet name="Calc_BCG" sheetId="5" r:id="rId3"/>
+    <sheet name="Calc_IBI" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
   <si>
     <t>Description</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Regional taxa translator table</t>
-  </si>
-  <si>
-    <t>Final output, with 'translated' TaxonID, NonTarget designations, attributes and phylogeny; the file is ready to be run through the BCG calculator</t>
   </si>
   <si>
     <r>
@@ -148,132 +145,30 @@
     <t>Metadata for the regional taxa translator table</t>
   </si>
   <si>
-    <t>BCG_TaxaTranslator_modify</t>
-  </si>
-  <si>
-    <t>BCG_TaxaTranslator_source</t>
-  </si>
-  <si>
-    <t>BCG_TaxaTranslator_TAXAATTR</t>
-  </si>
-  <si>
-    <t>BCG_TaxaTranslator_nonmatch</t>
-  </si>
-  <si>
     <t>Original file name</t>
   </si>
   <si>
     <t>Regional attribute table.</t>
   </si>
   <si>
-    <t>Metric flags associated with any metrics in the BCG.</t>
-  </si>
-  <si>
     <t>Metrics calculated by the BioMonTools R package, their description, and input fields.</t>
   </si>
   <si>
     <t>Metric scoring table used by the BioMonTools R package.</t>
   </si>
   <si>
-    <t>Rules table used by the BCGCalc R package to assign metric and level memberships.</t>
-  </si>
-  <si>
-    <t>For each sample, BCG model output (primary, secondary BCG levels and membership, continuous BCG score, narrative with and without pluses and minuses) plus flags (flag or NA)</t>
-  </si>
-  <si>
-    <t>Histogram showing distribution of samples across BCG levels.</t>
-  </si>
-  <si>
-    <t>Rules for each BCG level (metrics, thresholds, symbols).</t>
-  </si>
-  <si>
-    <t>For each sample, membership in each BCG level (0-1). Includes Index_Name and Index_Class</t>
-  </si>
-  <si>
-    <t>Results without the flags (primary, secondary BCG levels and membership, continuous BCG score, narrative with and without pluses and minuses)</t>
-  </si>
-  <si>
-    <t>Summary of how many samples had flagged metrics (and not flagged) based on the input file; count of # flagged (flag) and not flagged (NA)</t>
-  </si>
-  <si>
-    <t>Results of flag calculations for all metrics and samples</t>
-  </si>
-  <si>
-    <t>_BCG_RESULTS</t>
-  </si>
-  <si>
-    <t>_BCG_RESULTS.html</t>
-  </si>
-  <si>
-    <t>MetricFlags.xlsx</t>
-  </si>
-  <si>
     <t>MetricNames.xlsx</t>
   </si>
   <si>
     <t>MetricScoring.xlsx</t>
   </si>
   <si>
-    <t>Rules.xlsx</t>
-  </si>
-  <si>
-    <t>BCG_2metval_all</t>
-  </si>
-  <si>
-    <t>BCG_2metval_BCG</t>
-  </si>
-  <si>
-    <t>BCG_3metmemb</t>
-  </si>
-  <si>
-    <t>BCG_3metrules</t>
-  </si>
-  <si>
-    <t>BCG_4levmemb</t>
-  </si>
-  <si>
-    <t>BCG_5levassign</t>
-  </si>
-  <si>
-    <t>BCG_6levflags</t>
-  </si>
-  <si>
-    <t>BCG_6metflags</t>
-  </si>
-  <si>
     <t>CLASS</t>
   </si>
   <si>
     <t>SUBCLASS</t>
   </si>
   <si>
-    <t>FLCoral_BCG_Attributes_yyyymmdd</t>
-  </si>
-  <si>
-    <t>FLCoral_BCG_Attributes_Metadata_yyyymmdd</t>
-  </si>
-  <si>
-    <t>FLCoral_BCG_Taxa_Translator_yyyymmdd</t>
-  </si>
-  <si>
-    <t>FLCoral_BCG_Taxa_Translator_Metadata_yyyymmdd</t>
-  </si>
-  <si>
-    <t>results_FLCoral_BCG</t>
-  </si>
-  <si>
-    <t>results_Coral_BCG</t>
-  </si>
-  <si>
-    <t>Values for all coral metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>Values for coral metrics used in the FL BCG models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>Values for coral metrics used in the FL BCG models; each metric is assigned to  assigned metric membership values (0-1)</t>
-  </si>
-  <si>
     <t>N_TAXA</t>
   </si>
   <si>
@@ -320,6 +215,63 @@
   </si>
   <si>
     <t>Confirm</t>
+  </si>
+  <si>
+    <t>_IBI_RESULTS</t>
+  </si>
+  <si>
+    <t>IBI_2metval_all</t>
+  </si>
+  <si>
+    <t>IBI_2metval_IBI</t>
+  </si>
+  <si>
+    <t>IBI_3metscores</t>
+  </si>
+  <si>
+    <t>results_Bug_IBI</t>
+  </si>
+  <si>
+    <t>For each sample, IBI model output (metric values, metric scores, index scores, and attainment status)</t>
+  </si>
+  <si>
+    <t>Values for all bug metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>Values for bug metrics used in the MI EGLE IBI models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>Scores (0-100) for bug metrics used in the MI EGLE IBI models.</t>
+  </si>
+  <si>
+    <t>results_MI_EGLE_IBI</t>
+  </si>
+  <si>
+    <t>MI_EGLE_IBI_Attributes_yyyymmdd</t>
+  </si>
+  <si>
+    <t>MI_EGLE_IBI_Attributes_Metadata_yyyymmdd</t>
+  </si>
+  <si>
+    <t>MI_EGLE_IBI_Taxa_Translator_yyyymmdd</t>
+  </si>
+  <si>
+    <t>MI_EGLE_IBI_Taxa_Translator_Metadata_yyyymmdd</t>
+  </si>
+  <si>
+    <t>IBI_TaxaTranslator_modify</t>
+  </si>
+  <si>
+    <t>IBI_TaxaTranslator_nonmatch</t>
+  </si>
+  <si>
+    <t>IBI_TaxaTranslator_source</t>
+  </si>
+  <si>
+    <t>IBI_TaxaTranslator_TAXAATTR</t>
+  </si>
+  <si>
+    <t>Final output, with 'translated' TaxonID, NonTarget designations, attributes and phylogeny; the file is ready to be run through the IBI calculator</t>
   </si>
 </sst>
 </file>
@@ -726,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008E5B7-331F-433A-9A7C-4AD246BB0834}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -751,10 +703,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -765,10 +717,10 @@
         <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,7 +728,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -787,7 +739,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -798,18 +750,18 @@
         <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -817,10 +769,10 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -828,10 +780,10 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -839,13 +791,13 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A23830-B5FB-49D3-AF84-8DE9239FC2FB}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -874,291 +826,291 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1169,17 +1121,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="136.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="67" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1187,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1195,173 +1147,85 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/FLCoral_BCGCalc/inst/apps/FLCoral_BCGCalc/external/RMD/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MIEGLEtools/inst/apps/MIEGLEtools/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561D7837-FBF0-413F-BBA1-13C899878D7A}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BD91BC-9A96-4156-8D60-57A9D1D95BF0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="2" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
-    <sheet name="FileBuild_OutsideCoral" sheetId="13" r:id="rId2"/>
-    <sheet name="Calc_BCG" sheetId="5" r:id="rId3"/>
+    <sheet name="FileBuild_Outside" sheetId="13" r:id="rId2"/>
+    <sheet name="Calc_IBI" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
   <si>
     <t>Description</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Regional taxa translator table</t>
-  </si>
-  <si>
-    <t>Final output, with 'translated' TaxonID, NonTarget designations, attributes and phylogeny; the file is ready to be run through the BCG calculator</t>
   </si>
   <si>
     <r>
@@ -112,15 +109,9 @@
     <t>Unique sample identifier (typically comprised of the site name, sample date, and replicate number).</t>
   </si>
   <si>
-    <t>BCG_ATTR</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>non-negative real number</t>
-  </si>
-  <si>
     <t>TRUE, FALSE</t>
   </si>
   <si>
@@ -130,12 +121,6 @@
     <t>Entries should be consistent with the phylogeny.</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5, 6</t>
-  </si>
-  <si>
-    <t>BCG Attribute assigned to each taxon. A single taxon can only have one entry.</t>
-  </si>
-  <si>
     <t>TAXAID</t>
   </si>
   <si>
@@ -160,209 +145,140 @@
     <t>Metadata for the regional taxa translator table</t>
   </si>
   <si>
-    <t>BCG_TaxaTranslator_modify</t>
-  </si>
-  <si>
-    <t>BCG_TaxaTranslator_source</t>
-  </si>
-  <si>
-    <t>BCG_TaxaTranslator_TAXAATTR</t>
-  </si>
-  <si>
-    <t>BCG_TaxaTranslator_nonmatch</t>
-  </si>
-  <si>
     <t>Original file name</t>
   </si>
   <si>
     <t>Regional attribute table.</t>
   </si>
   <si>
-    <t>Metric flags associated with any metrics in the BCG.</t>
-  </si>
-  <si>
     <t>Metrics calculated by the BioMonTools R package, their description, and input fields.</t>
   </si>
   <si>
     <t>Metric scoring table used by the BioMonTools R package.</t>
   </si>
   <si>
-    <t>Rules table used by the BCGCalc R package to assign metric and level memberships.</t>
-  </si>
-  <si>
-    <t>For each sample, BCG model output (primary, secondary BCG levels and membership, continuous BCG score, narrative with and without pluses and minuses) plus flags (flag or NA)</t>
-  </si>
-  <si>
-    <t>Histogram showing distribution of samples across BCG levels.</t>
-  </si>
-  <si>
-    <t>Rules for each BCG level (metrics, thresholds, symbols).</t>
-  </si>
-  <si>
-    <t>For each sample, membership in each BCG level (0-1). Includes Index_Name and Index_Class</t>
-  </si>
-  <si>
-    <t>Results without the flags (primary, secondary BCG levels and membership, continuous BCG score, narrative with and without pluses and minuses)</t>
-  </si>
-  <si>
-    <t>Summary of how many samples had flagged metrics (and not flagged) based on the input file; count of # flagged (flag) and not flagged (NA)</t>
-  </si>
-  <si>
-    <t>Results of flag calculations for all metrics and samples</t>
-  </si>
-  <si>
-    <t>_BCG_RESULTS</t>
-  </si>
-  <si>
-    <t>_BCG_RESULTS.html</t>
-  </si>
-  <si>
-    <t>MetricFlags.xlsx</t>
-  </si>
-  <si>
     <t>MetricNames.xlsx</t>
   </si>
   <si>
     <t>MetricScoring.xlsx</t>
   </si>
   <si>
-    <t>Rules.xlsx</t>
-  </si>
-  <si>
-    <t>BCG_2metval_all</t>
-  </si>
-  <si>
-    <t>BCG_2metval_BCG</t>
-  </si>
-  <si>
-    <t>BCG_3metmemb</t>
-  </si>
-  <si>
-    <t>BCG_3metrules</t>
-  </si>
-  <si>
-    <t>BCG_4levmemb</t>
-  </si>
-  <si>
-    <t>BCG_5levassign</t>
-  </si>
-  <si>
-    <t>BCG_6levflags</t>
-  </si>
-  <si>
-    <t>BCG_6metflags</t>
-  </si>
-  <si>
-    <t>LRBC</t>
-  </si>
-  <si>
-    <t>JUVENILE</t>
-  </si>
-  <si>
-    <t>DIAMMAX_CM</t>
-  </si>
-  <si>
-    <t>DIAMPERP_CM</t>
-  </si>
-  <si>
-    <t>WEEDY</t>
-  </si>
-  <si>
-    <t>MORPHCONVFACT</t>
-  </si>
-  <si>
     <t>CLASS</t>
   </si>
   <si>
     <t>SUBCLASS</t>
   </si>
   <si>
-    <t>GENUS</t>
-  </si>
-  <si>
-    <t>SUBGENUS</t>
-  </si>
-  <si>
-    <t>SPECIES</t>
-  </si>
-  <si>
-    <t>TOTTRANLNGTH_M</t>
-  </si>
-  <si>
-    <t>HEIGHT_CM</t>
-  </si>
-  <si>
-    <t>TOTMORT_PCT</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morphological Conversion Factor. In general, morphological types and relative values included flat (M=1), hemisphere (M=2), overlapping plates and lobes (M=3), and branched (M=4) colonies. </t>
-  </si>
-  <si>
-    <t>% total mortality of the colony (e.g., 58%). Used to calculate % Living Tissue = 100 - TOTMORT_PCT.</t>
-  </si>
-  <si>
-    <t>"Sometimes" or "Never"</t>
-  </si>
-  <si>
-    <t>Specifies whether a colony is 'Weedy' as either "Sometimes" or "Never". Converted to binary TRUE/FALSE WEEDY_CONFIRMED field. Any colony listed as "Never" will equal FALSE. Any colony listed as "Sometimes" and under 75cm maximum diameter will equal TRUE unless they are Siderastrea siderea or Stepahnocoenia intersepta. Colonies of those two species are considered 'Weedy' if the maximum diameter is less than or equal to 30cm and the height is less than or equal to 10cm.</t>
-  </si>
-  <si>
-    <t>Large reef-building coral colonies should be marked as 'TRUE'.</t>
-  </si>
-  <si>
-    <t>Maximum diameter of the colony (cm)</t>
-  </si>
-  <si>
-    <t>Perpendicular diameter of the colony (cm).</t>
-  </si>
-  <si>
-    <t>Height of the colony (cm).</t>
-  </si>
-  <si>
-    <t>Juvenile colonies should be marked as 'TRUE'.</t>
-  </si>
-  <si>
-    <t>Taxonomic identification of colonies in each sample.</t>
-  </si>
-  <si>
-    <t>Total transect length of the sample (m). Should be repeated for each row.</t>
-  </si>
-  <si>
-    <t>FLCoral_BCG_Attributes_yyyymmdd</t>
-  </si>
-  <si>
-    <t>FLCoral_BCG_Attributes_Metadata_yyyymmdd</t>
-  </si>
-  <si>
-    <t>FLCoral_BCG_Taxa_Translator_yyyymmdd</t>
-  </si>
-  <si>
-    <t>FLCoral_BCG_Taxa_Translator_Metadata_yyyymmdd</t>
-  </si>
-  <si>
-    <t>results_FLCoral_BCG</t>
-  </si>
-  <si>
-    <t>results_Coral_BCG</t>
-  </si>
-  <si>
-    <t>Values for all coral metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>Values for coral metrics used in the FL BCG models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>Values for coral metrics used in the FL BCG models; each metric is assigned to  assigned metric membership values (0-1)</t>
+    <t>N_TAXA</t>
+  </si>
+  <si>
+    <t>NONTARGET</t>
+  </si>
+  <si>
+    <t>SUBPHYLUM</t>
+  </si>
+  <si>
+    <t>FFG</t>
+  </si>
+  <si>
+    <t>TOLVAL</t>
+  </si>
+  <si>
+    <t>HABIT</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>Latitude (y-coordinate) in decimal degrees. Only necessary for site classification app function; otherwise, can be excluded.</t>
+  </si>
+  <si>
+    <t>Longitude (x-coordinate) in decimal degrees. Only necessary for site classification app function; otherwise, can be excluded.</t>
+  </si>
+  <si>
+    <t>Narrow, VeryNarrow, MidSizeDry, WetWide, WestFlat, WestSteep, East</t>
+  </si>
+  <si>
+    <t>INDEX_CLASS</t>
+  </si>
+  <si>
+    <t>Index class is assigned based on site characteristics. Can be manually chosen or chosen through the site classification app function.</t>
+  </si>
+  <si>
+    <t>Taxonomic identification of macroinvertebrates in each sample.</t>
+  </si>
+  <si>
+    <t>Number of individuals</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>_IBI_RESULTS</t>
+  </si>
+  <si>
+    <t>IBI_2metval_all</t>
+  </si>
+  <si>
+    <t>IBI_2metval_IBI</t>
+  </si>
+  <si>
+    <t>IBI_3metscores</t>
+  </si>
+  <si>
+    <t>results_Bug_IBI</t>
+  </si>
+  <si>
+    <t>For each sample, IBI model output (metric values, metric scores, index scores, and attainment status)</t>
+  </si>
+  <si>
+    <t>Values for all bug metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>Values for bug metrics used in the MI EGLE IBI models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>Scores (0-100) for bug metrics used in the MI EGLE IBI models.</t>
+  </si>
+  <si>
+    <t>results_MI_EGLE_IBI</t>
+  </si>
+  <si>
+    <t>MI_EGLE_IBI_Attributes_yyyymmdd</t>
+  </si>
+  <si>
+    <t>MI_EGLE_IBI_Attributes_Metadata_yyyymmdd</t>
+  </si>
+  <si>
+    <t>MI_EGLE_IBI_Taxa_Translator_yyyymmdd</t>
+  </si>
+  <si>
+    <t>MI_EGLE_IBI_Taxa_Translator_Metadata_yyyymmdd</t>
+  </si>
+  <si>
+    <t>IBI_TaxaTranslator_modify</t>
+  </si>
+  <si>
+    <t>IBI_TaxaTranslator_nonmatch</t>
+  </si>
+  <si>
+    <t>IBI_TaxaTranslator_source</t>
+  </si>
+  <si>
+    <t>IBI_TaxaTranslator_TAXAATTR</t>
+  </si>
+  <si>
+    <t>Final output, with 'translated' TaxonID, NonTarget designations, attributes and phylogeny; the file is ready to be run through the IBI calculator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,8 +301,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -432,6 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,9 +380,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -490,7 +420,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -596,7 +526,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -738,7 +668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -748,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008E5B7-331F-433A-9A7C-4AD246BB0834}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -773,10 +703,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -784,21 +714,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -806,10 +736,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -817,21 +747,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -839,10 +769,10 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -850,10 +780,10 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -861,13 +791,13 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -877,10 +807,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A23830-B5FB-49D3-AF84-8DE9239FC2FB}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,359 +826,291 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1258,17 +1121,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="136.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="67" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1276,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1284,173 +1147,85 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MIEGLEtools/inst/apps/MIEGLEtools/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BD91BC-9A96-4156-8D60-57A9D1D95BF0}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC329D68-9714-4F80-AB7F-9D9F86437305}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="4" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
     <sheet name="FileBuild_Outside" sheetId="13" r:id="rId2"/>
     <sheet name="Calc_IBI" sheetId="5" r:id="rId3"/>
+    <sheet name="FileBuild_About" sheetId="14" r:id="rId4"/>
+    <sheet name="FileBuild_About2" sheetId="15" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FileBuild_About!$A$1:$E$42</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="188">
   <si>
     <t>Description</t>
   </si>
@@ -187,39 +192,15 @@
     <t>HABIT</t>
   </si>
   <si>
-    <t>LATITUDE</t>
-  </si>
-  <si>
-    <t>LONGITUDE</t>
-  </si>
-  <si>
-    <t>Latitude (y-coordinate) in decimal degrees. Only necessary for site classification app function; otherwise, can be excluded.</t>
-  </si>
-  <si>
-    <t>Longitude (x-coordinate) in decimal degrees. Only necessary for site classification app function; otherwise, can be excluded.</t>
-  </si>
-  <si>
     <t>Narrow, VeryNarrow, MidSizeDry, WetWide, WestFlat, WestSteep, East</t>
   </si>
   <si>
     <t>INDEX_CLASS</t>
   </si>
   <si>
-    <t>Index class is assigned based on site characteristics. Can be manually chosen or chosen through the site classification app function.</t>
-  </si>
-  <si>
     <t>Taxonomic identification of macroinvertebrates in each sample.</t>
   </si>
   <si>
-    <t>Number of individuals</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-  </si>
-  <si>
-    <t>_IBI_RESULTS</t>
-  </si>
-  <si>
     <t>IBI_2metval_all</t>
   </si>
   <si>
@@ -229,36 +210,15 @@
     <t>IBI_3metscores</t>
   </si>
   <si>
-    <t>results_Bug_IBI</t>
-  </si>
-  <si>
-    <t>For each sample, IBI model output (metric values, metric scores, index scores, and attainment status)</t>
-  </si>
-  <si>
     <t>Values for all bug metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
   </si>
   <si>
     <t>Values for bug metrics used in the MI EGLE IBI models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
   </si>
   <si>
-    <t>Scores (0-100) for bug metrics used in the MI EGLE IBI models.</t>
-  </si>
-  <si>
     <t>results_MI_EGLE_IBI</t>
   </si>
   <si>
-    <t>MI_EGLE_IBI_Attributes_yyyymmdd</t>
-  </si>
-  <si>
-    <t>MI_EGLE_IBI_Attributes_Metadata_yyyymmdd</t>
-  </si>
-  <si>
-    <t>MI_EGLE_IBI_Taxa_Translator_yyyymmdd</t>
-  </si>
-  <si>
-    <t>MI_EGLE_IBI_Taxa_Translator_Metadata_yyyymmdd</t>
-  </si>
-  <si>
     <t>IBI_TaxaTranslator_modify</t>
   </si>
   <si>
@@ -272,13 +232,400 @@
   </si>
   <si>
     <t>Final output, with 'translated' TaxonID, NonTarget designations, attributes and phylogeny; the file is ready to be run through the IBI calculator</t>
+  </si>
+  <si>
+    <t>MIEGLEtools_IBI_Attributes_yyyymmdd</t>
+  </si>
+  <si>
+    <t>MIEGLEtools_IBI_Taxa_Translator_yyyymmdd</t>
+  </si>
+  <si>
+    <t>MIEGLEtools_IBI_Attributes_Metadata_yyyymmdd</t>
+  </si>
+  <si>
+    <t>MIEGLEtools_IBI_Taxa_Translator_Metadata_yyyymmdd</t>
+  </si>
+  <si>
+    <t>IBI_IndexClassification</t>
+  </si>
+  <si>
+    <t>List of sites assigned to IBI Index Classes. Contains interim fields necessary for index classification.</t>
+  </si>
+  <si>
+    <t>IBI_4Index_Attain</t>
+  </si>
+  <si>
+    <t>Index class is assigned based on site characteristics. Can be manually chosen or chosen through the index classification app function (see File Builder).</t>
+  </si>
+  <si>
+    <t>Non-target taxa are those that are not part of the intended capture list. These taxa will be removed before any calculations.</t>
+  </si>
+  <si>
+    <t>CF; CG; PR; SC; SH</t>
+  </si>
+  <si>
+    <t>Functional feeding group. CF = "collector-filterer"; CG = "collector-gatherer"; PR = "predator"; SC = "scrapper", and SH = "shredder". More than one FFG can be assigned to a taxon - separated by ";" (e.g., "SH;SC"). Note, that other FFG designations are allowed, but are not used in the MI EGLE IBIs.</t>
+  </si>
+  <si>
+    <t>BU; CB; CN; SP; SW</t>
+  </si>
+  <si>
+    <t>Taxon habit. BU = "burrower"; CB = "climber"; CN = "clinger"; SP = "sprawler", and SW = "swimmer". More than one habit can be assigned to a taxon - separated by ";" (e.g., "CB;CN").</t>
+  </si>
+  <si>
+    <t>Taxa tolerance values. Range from 0 (intolerant) to 10 (tolerant).</t>
+  </si>
+  <si>
+    <t>Number of individuals.</t>
+  </si>
+  <si>
+    <t>Attainment status of each sample based on MI EGLE thresholds.For each sample, IBI model output (metric values, metric scores, index scores, and attainment status)</t>
+  </si>
+  <si>
+    <t>Scores (0-100) for bug metrics used in the MI EGLE IBI models.For each sample, IBI model output (metric values, metric scores, and index scores)</t>
+  </si>
+  <si>
+    <t>IBI_1markexcl</t>
+  </si>
+  <si>
+    <t>Excluded (non-count) taxa. Excluded from taxa richness metrics. Calculated using BioMonTools R package (https://github.com/leppott/BioMonTools).</t>
+  </si>
+  <si>
+    <t>Index Class</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Scoring Formula</t>
+  </si>
+  <si>
+    <t>MidSizeDry</t>
+  </si>
+  <si>
+    <t>nt_CruMol</t>
+  </si>
+  <si>
+    <t>Number of taxa of Phylum Mollusca and Subphylum Crustacea</t>
+  </si>
+  <si>
+    <t>Richness</t>
+  </si>
+  <si>
+    <t>100*(8 - X)/(7)</t>
+  </si>
+  <si>
+    <t>VeryNarrow</t>
+  </si>
+  <si>
+    <t>nt_EPT</t>
+  </si>
+  <si>
+    <t>Number of taxa in Orders Ephemeroptera, Plecoptera, and Trichoptera</t>
+  </si>
+  <si>
+    <t>100*(X - 2.35)/(12.65)</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>nt_habit_cling</t>
+  </si>
+  <si>
+    <t>Number of taxa of Habit - clingers</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>100*(X - 2)/(10.6)</t>
+  </si>
+  <si>
+    <t>WetWide</t>
+  </si>
+  <si>
+    <t>nt_NonIns</t>
+  </si>
+  <si>
+    <t>Number of taxa not of Class Insecta</t>
+  </si>
+  <si>
+    <t>100*(13 - X)/(9)</t>
+  </si>
+  <si>
+    <t>nt_Trich</t>
+  </si>
+  <si>
+    <t>Number of taxa of Order Tricoptera</t>
+  </si>
+  <si>
+    <t>100*(X)/(7)</t>
+  </si>
+  <si>
+    <t>WestSteep</t>
+  </si>
+  <si>
+    <t>nt_tv_toler</t>
+  </si>
+  <si>
+    <t>Number of taxa with tolerance value ≥7 - tolerant</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>100*(5 - X)/(5)</t>
+  </si>
+  <si>
+    <t>pi_Cru</t>
+  </si>
+  <si>
+    <t>Percent individuals of Subphylum Crustacea</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>100*(63.71 - X)/(63.71)</t>
+  </si>
+  <si>
+    <t>pi_CruMol</t>
+  </si>
+  <si>
+    <t>Percent individuals of Subphylum Crustacea and Phylum Mollusca</t>
+  </si>
+  <si>
+    <t>100*(51.48 - X)/(50.91)</t>
+  </si>
+  <si>
+    <t>Narrow</t>
+  </si>
+  <si>
+    <t>pi_EPT</t>
+  </si>
+  <si>
+    <t>Percent individuals of Orders Ephemeroptera, Plecoptera, and Trichoptera</t>
+  </si>
+  <si>
+    <t>100*(X - 14.93)/(57.97)</t>
+  </si>
+  <si>
+    <t>WestFlat</t>
+  </si>
+  <si>
+    <t>100*(X - 0.59)/(60.17)</t>
+  </si>
+  <si>
+    <t>pi_EPTNoBaeHydro</t>
+  </si>
+  <si>
+    <t>Percent individuals of Orders Ephemeroptera, Plecoptera and Trichoptera (EPT) and not Families Baetidae or Hydropsychidae</t>
+  </si>
+  <si>
+    <t>100*(X)/(32.58)</t>
+  </si>
+  <si>
+    <t>pi_ffg_col</t>
+  </si>
+  <si>
+    <t>Percent individuals of Functional Feeding Group - collector-gatherer</t>
+  </si>
+  <si>
+    <t>100*(72.31 - X)/(62.64)</t>
+  </si>
+  <si>
+    <t>100*(77.52 - X)/(72.21)</t>
+  </si>
+  <si>
+    <t>pi_ffg_pred</t>
+  </si>
+  <si>
+    <t>Percent individuals of Functional Feeding Group - predator</t>
+  </si>
+  <si>
+    <t>100*(X - 3.21)/(22.51)</t>
+  </si>
+  <si>
+    <t>pi_ffg_scrap</t>
+  </si>
+  <si>
+    <t>Percent individuals of Functional Feeding Group - scraper</t>
+  </si>
+  <si>
+    <t>100*(50.14 - X)/(48.06)</t>
+  </si>
+  <si>
+    <t>pi_ffg_shred</t>
+  </si>
+  <si>
+    <t>Percent individuals of Functional Feeding Group - shredder</t>
+  </si>
+  <si>
+    <t>100*(42.23 - X)/(40.87)</t>
+  </si>
+  <si>
+    <t>100*(51.34 - X)/(49.46)</t>
+  </si>
+  <si>
+    <t>100*(71.15 - X)/(69.82)</t>
+  </si>
+  <si>
+    <t>pi_habit_climb</t>
+  </si>
+  <si>
+    <t>Percent individuals of Habit - climbers</t>
+  </si>
+  <si>
+    <t>100*(18.45 - X)/(18.07)</t>
+  </si>
+  <si>
+    <t>pi_habit_cling</t>
+  </si>
+  <si>
+    <t>Percent individuals of Habit - clingers</t>
+  </si>
+  <si>
+    <t>100*(X - 18.39)/(61.18)</t>
+  </si>
+  <si>
+    <t>100*(X - 4.27)/(67.89)</t>
+  </si>
+  <si>
+    <t>100*(X - 1.29)/(69.73)</t>
+  </si>
+  <si>
+    <t>pi_habit_sprawl</t>
+  </si>
+  <si>
+    <t>Percent individuals of Habit - sprawlers</t>
+  </si>
+  <si>
+    <t>100*(27.03 - X)/(26.45)</t>
+  </si>
+  <si>
+    <t>pi_IsopGastHiru</t>
+  </si>
+  <si>
+    <t>Percent individuals of Order Isopoda, Class Gastropoda, Subclass Hirudinea</t>
+  </si>
+  <si>
+    <t>100*(38.46 - X)/(38.07)</t>
+  </si>
+  <si>
+    <t>100*(48.6 - X)/(47.86)</t>
+  </si>
+  <si>
+    <t>pi_NonIns</t>
+  </si>
+  <si>
+    <t>Percent individuals not of Class Insecta</t>
+  </si>
+  <si>
+    <t>100*(67.29 - X)/(64)</t>
+  </si>
+  <si>
+    <t>pi_Pleco</t>
+  </si>
+  <si>
+    <t>Percent individuals of Order Plecoptera</t>
+  </si>
+  <si>
+    <t>100*(X)/(6.62)</t>
+  </si>
+  <si>
+    <t>pi_tv_intol</t>
+  </si>
+  <si>
+    <t>Percent individuals with tolerance value ≤3 - intolerant</t>
+  </si>
+  <si>
+    <t>100*(X)/(42.08)</t>
+  </si>
+  <si>
+    <t>pi_tv_toler</t>
+  </si>
+  <si>
+    <t>Percent individuals with tolerance value ≥7 - tolerant</t>
+  </si>
+  <si>
+    <t>100*(18.26 - X)/(18.26)</t>
+  </si>
+  <si>
+    <t>pt_NonIns</t>
+  </si>
+  <si>
+    <t>Percent of taxa not of Class Insecta</t>
+  </si>
+  <si>
+    <t>100*(33.33 - X)/(22.62)</t>
+  </si>
+  <si>
+    <t>100*(34.39 - X)/(26.25)</t>
+  </si>
+  <si>
+    <t>100*(38.89 - X)/(28.18)</t>
+  </si>
+  <si>
+    <t>100*(43.51 - X)/(25.33)</t>
+  </si>
+  <si>
+    <t>100*(50 - X)/(30)</t>
+  </si>
+  <si>
+    <t>pt_tv_intol</t>
+  </si>
+  <si>
+    <t>Percent taxa with tolerance value ≤3 - intolerant</t>
+  </si>
+  <si>
+    <t>100*(X - 7.51)/(37.73)</t>
+  </si>
+  <si>
+    <t>100*(X)/(31.06)</t>
+  </si>
+  <si>
+    <t>pt_tv_toler</t>
+  </si>
+  <si>
+    <t>Percent taxa with tolerance value ≥7 - tolerant</t>
+  </si>
+  <si>
+    <t>100*(17.39 - X)/(17.39)</t>
+  </si>
+  <si>
+    <t>100*(30.04 - X)/(25.71)</t>
+  </si>
+  <si>
+    <t>100*(31.93 - X)/(26.61)</t>
+  </si>
+  <si>
+    <t>100*(30.9 - X)/(30.9)</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>15th</t>
+  </si>
+  <si>
+    <t>P51 IBI Score Threshold</t>
+  </si>
+  <si>
+    <t>Percentile of Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,15 +648,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,12 +659,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -361,7 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008E5B7-331F-433A-9A7C-4AD246BB0834}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +1047,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
@@ -725,7 +1058,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -736,7 +1069,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -747,7 +1080,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -758,10 +1091,10 @@
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -769,10 +1102,10 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -780,24 +1113,35 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>73</v>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -807,11 +1151,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A23830-B5FB-49D3-AF84-8DE9239FC2FB}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,111 +1202,111 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
+      <c r="A9" t="s">
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -978,8 +1322,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>41</v>
+      <c r="A10" t="s">
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -995,8 +1339,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
+      <c r="A11" t="s">
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1012,8 +1356,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
+      <c r="A12" t="s">
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1028,29 +1372,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>25</v>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>26</v>
+      <c r="A14" t="s">
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1059,58 +1403,24 @@
         <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>54</v>
+      <c r="C15" t="s">
+        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
+      <c r="E15" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1434,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,54 +1488,907 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C0A9FE-C8CE-4A36-85A6-2441939240FA}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E42" xr:uid="{D4C0A9FE-C8CE-4A36-85A6-2441939240FA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E42">
+      <sortCondition ref="A1:A42"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA05A45-EA9D-49A2-B057-03062F1A155B}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
         <v>59</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MIEGLEtools/inst/apps/MIEGLEtools/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC329D68-9714-4F80-AB7F-9D9F86437305}"/>
+  <xr:revisionPtr revIDLastSave="599" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726FB58A-F7BE-4B5B-90CB-46C13E6D47E6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="4" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="2" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
@@ -51,27 +51,6 @@
     <t>Output file</t>
   </si>
   <si>
-    <t>original input file</t>
-  </si>
-  <si>
-    <t>Original input file</t>
-  </si>
-  <si>
-    <t>Provides documentation of the Operational Taxonomic Unit (OTU) and source files that were used</t>
-  </si>
-  <si>
-    <t>Lists the taxa that occur in the input file, plus: 1) original TaxonID; 2) 'translated' TaxonID (OTU that will be used for the calculation); 3) whether the original TaxonID occurs in the regional taxa translator table (TRUE/FALSE); 4) whether the original TaxonID was changed during the 'translation' process (YES/NO); 5) total count in the input file (# individuals summed across samples)</t>
-  </si>
-  <si>
-    <t>Lists taxa in the input file that don't occur in the regional taxa translator table (if the file is blank, all are 'matches')</t>
-  </si>
-  <si>
-    <t>Metadata for the regional attribute table</t>
-  </si>
-  <si>
-    <t>Regional taxa translator table</t>
-  </si>
-  <si>
     <r>
       <t>Column Name</t>
     </r>
@@ -147,9 +126,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>Metadata for the regional taxa translator table</t>
-  </si>
-  <si>
     <t>Original file name</t>
   </si>
   <si>
@@ -210,12 +186,6 @@
     <t>IBI_3metscores</t>
   </si>
   <si>
-    <t>Values for all bug metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>Values for bug metrics used in the MI EGLE IBI models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
     <t>results_MI_EGLE_IBI</t>
   </si>
   <si>
@@ -228,12 +198,6 @@
     <t>IBI_TaxaTranslator_source</t>
   </si>
   <si>
-    <t>IBI_TaxaTranslator_TAXAATTR</t>
-  </si>
-  <si>
-    <t>Final output, with 'translated' TaxonID, NonTarget designations, attributes and phylogeny; the file is ready to be run through the IBI calculator</t>
-  </si>
-  <si>
     <t>MIEGLEtools_IBI_Attributes_yyyymmdd</t>
   </si>
   <si>
@@ -252,9 +216,6 @@
     <t>List of sites assigned to IBI Index Classes. Contains interim fields necessary for index classification.</t>
   </si>
   <si>
-    <t>IBI_4Index_Attain</t>
-  </si>
-  <si>
     <t>Index class is assigned based on site characteristics. Can be manually chosen or chosen through the index classification app function (see File Builder).</t>
   </si>
   <si>
@@ -279,12 +240,6 @@
     <t>Number of individuals.</t>
   </si>
   <si>
-    <t>Attainment status of each sample based on MI EGLE thresholds.For each sample, IBI model output (metric values, metric scores, index scores, and attainment status)</t>
-  </si>
-  <si>
-    <t>Scores (0-100) for bug metrics used in the MI EGLE IBI models.For each sample, IBI model output (metric values, metric scores, and index scores)</t>
-  </si>
-  <si>
     <t>IBI_1markexcl</t>
   </si>
   <si>
@@ -619,6 +574,51 @@
   </si>
   <si>
     <t>Percentile of Reference</t>
+  </si>
+  <si>
+    <t>IBI_FileBuilder_CompleteInput</t>
+  </si>
+  <si>
+    <t>Final output, with 'translated' TaxonID, NonTarget designations, attributes and phylogeny, and assigned Index Classes. The file is ready to be run through the IBI calculator.</t>
+  </si>
+  <si>
+    <t>quality_control</t>
+  </si>
+  <si>
+    <t>Original input file.</t>
+  </si>
+  <si>
+    <t>Metadata for the regional attribute table.</t>
+  </si>
+  <si>
+    <t>Regional taxa translator table.</t>
+  </si>
+  <si>
+    <t>Metadata for the regional taxa translator table.</t>
+  </si>
+  <si>
+    <t>Lists the taxa that occur in the input file, plus: 1) original TaxonID; 2) 'translated' TaxonID (OTU that will be used for the calculation); 3) whether the original TaxonID occurs in the regional taxa translator table (TRUE/FALSE); 4) whether the original TaxonID was changed during the 'translation' process (YES/NO); 5) total count in the input file (# individuals summed across samples).</t>
+  </si>
+  <si>
+    <t>Lists taxa in the input file that don't occur in the regional taxa translator table (if the file is blank, all are 'matches').</t>
+  </si>
+  <si>
+    <t>Provides documentation of the Operational Taxonomic Unit (OTU) and source files that were used.</t>
+  </si>
+  <si>
+    <t>Values for all bug metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools).</t>
+  </si>
+  <si>
+    <t>Values for bug metrics used in the MI EGLE IBI models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools).</t>
+  </si>
+  <si>
+    <t>IBI_IndexCalc_Final</t>
+  </si>
+  <si>
+    <t>Scores (0-100) for bug metrics used in the MI EGLE IBI models. For each sample, IBI model output (metric values, metric scores, and index scores).</t>
+  </si>
+  <si>
+    <t>Attainment status of each sample based on MI EGLE thresholds. For each sample, IBI model output (metric values, metric scores, index scores, and attainment status).</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1036,112 +1036,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1170,257 +1170,257 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1457,90 +1457,90 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1565,716 +1565,716 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA05A45-EA9D-49A2-B057-03062F1A155B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2304,90 +2304,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/MIEGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MIEGLEtools/inst/apps/MIEGLEtools/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="599" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726FB58A-F7BE-4B5B-90CB-46C13E6D47E6}"/>
+  <xr:revisionPtr revIDLastSave="654" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07C858C8-4E07-4FF4-8E2B-DACD603A86DE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="2" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
@@ -18,6 +18,8 @@
     <sheet name="Calc_IBI" sheetId="5" r:id="rId3"/>
     <sheet name="FileBuild_About" sheetId="14" r:id="rId4"/>
     <sheet name="FileBuild_About2" sheetId="15" r:id="rId5"/>
+    <sheet name="North_Classes" sheetId="16" r:id="rId6"/>
+    <sheet name="South_Classes" sheetId="17" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FileBuild_About!$A$1:$E$42</definedName>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="199">
   <si>
     <t>Description</t>
   </si>
@@ -210,15 +212,6 @@
     <t>MIEGLEtools_IBI_Taxa_Translator_Metadata_yyyymmdd</t>
   </si>
   <si>
-    <t>IBI_IndexClassification</t>
-  </si>
-  <si>
-    <t>List of sites assigned to IBI Index Classes. Contains interim fields necessary for index classification.</t>
-  </si>
-  <si>
-    <t>Index class is assigned based on site characteristics. Can be manually chosen or chosen through the index classification app function (see File Builder).</t>
-  </si>
-  <si>
     <t>Non-target taxa are those that are not part of the intended capture list. These taxa will be removed before any calculations.</t>
   </si>
   <si>
@@ -300,9 +293,6 @@
     <t>100*(X - 2)/(10.6)</t>
   </si>
   <si>
-    <t>WetWide</t>
-  </si>
-  <si>
     <t>nt_NonIns</t>
   </si>
   <si>
@@ -561,21 +551,9 @@
     <t>100*(30.9 - X)/(30.9)</t>
   </si>
   <si>
-    <t>5th</t>
-  </si>
-  <si>
-    <t>10th</t>
-  </si>
-  <si>
-    <t>15th</t>
-  </si>
-  <si>
     <t>P51 IBI Score Threshold</t>
   </si>
   <si>
-    <t>Percentile of Reference</t>
-  </si>
-  <si>
     <t>IBI_FileBuilder_CompleteInput</t>
   </si>
   <si>
@@ -618,14 +596,93 @@
     <t>Scores (0-100) for bug metrics used in the MI EGLE IBI models. For each sample, IBI model output (metric values, metric scores, and index scores).</t>
   </si>
   <si>
-    <t>Attainment status of each sample based on MI EGLE thresholds. For each sample, IBI model output (metric values, metric scores, index scores, and attainment status).</t>
+    <t>Stream Width (feet)</t>
+  </si>
+  <si>
+    <t>&lt;13</t>
+  </si>
+  <si>
+    <t>13-21.27</t>
+  </si>
+  <si>
+    <t>&gt;21.27-68.367</t>
+  </si>
+  <si>
+    <t>&gt;68.367</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;=40.067% Catchment Water or Wetland Land Cover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>WideorMidSizeWet</t>
+  </si>
+  <si>
+    <r>
+      <t>&gt;40.067% Catchment Water or Wetland Land Cover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>At or East of -83.72</t>
+  </si>
+  <si>
+    <t>% streamline slope in catchment*</t>
+  </si>
+  <si>
+    <t>Stream Class</t>
+  </si>
+  <si>
+    <t>&lt; % 0.2976</t>
+  </si>
+  <si>
+    <t>&gt; % 0.2976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West of -83.72 </t>
+  </si>
+  <si>
+    <t>west of -83.72</t>
+  </si>
+  <si>
+    <t>IBI_StreamClassification</t>
+  </si>
+  <si>
+    <t>List of sites assigned to IBI Stream Classes. Contains interim fields necessary for index classification.</t>
+  </si>
+  <si>
+    <t>Stream class is assigned based on site characteristics. Can be manually chosen or chosen through the index classification app function (see File Builder).</t>
+  </si>
+  <si>
+    <t>Macroinvertebrate rating of each sample based on MI EGLE thresholds. For each sample, IBI model output (metric values, metric scores, index scores, and macroinvertebrate ratings).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +704,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1012,7 +1075,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1105,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,7 +1127,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,7 +1138,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,7 +1149,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1094,10 +1157,10 @@
         <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1105,10 +1168,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1116,32 +1179,32 @@
         <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1218,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1250,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1267,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,13 +1443,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1414,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1526,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1490,13 +1553,13 @@
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1504,10 +1567,10 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1515,10 +1578,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1526,21 +1589,21 @@
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C0A9FE-C8CE-4A36-85A6-2441939240FA}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1565,716 +1630,716 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
         <v>95</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
         <v>72</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
         <v>151</v>
-      </c>
-      <c r="C24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
         <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
         <v>152</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
         <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s">
         <v>163</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2289,105 +2354,214 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA05A45-EA9D-49A2-B057-03062F1A155B}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D00E53E-2449-42CF-82C6-750D6B129363}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2">
-        <v>59</v>
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>48</v>
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>45</v>
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>168</v>
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECBEDB6-DEAA-4E7C-95C8-025E1B38CE41}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
